--- a/Text/仕様書＿河野.xlsx
+++ b/Text/仕様書＿河野.xlsx
@@ -4029,6 +4029,94 @@
         <a:xfrm>
           <a:off x="7007086" y="13061673"/>
           <a:ext cx="1292087" cy="1292087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225134</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9923316" y="13040591"/>
+          <a:ext cx="1541319" cy="1541319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12850091" y="13075227"/>
+          <a:ext cx="1489364" cy="1489364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5550,8 +5638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Text/仕様書＿河野.xlsx
+++ b/Text/仕様書＿河野.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="アイテム一覧" sheetId="4" r:id="rId1"/>
@@ -3613,13 +3613,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3628,8 +3628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="361950"/>
-          <a:ext cx="8934450" cy="4867275"/>
+          <a:off x="742950" y="447675"/>
+          <a:ext cx="10315575" cy="4972050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3662,10 +3662,870 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742951" y="4895850"/>
+          <a:ext cx="7658100" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="直角三角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="4886325"/>
+          <a:ext cx="2676525" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732234" y="4075847"/>
+          <a:ext cx="789385" cy="859294"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 485775"/>
+            <a:gd name="connsiteX1" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 485775"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 485775 h 485775"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 485775 h 485775"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 485775"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 19050 h 504825"/>
+            <a:gd name="connsiteX1" fmla="*/ 609600 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 504825"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 504825 h 504825"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 504825 h 504825"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 19050 h 504825"/>
+            <a:gd name="connsiteX0" fmla="*/ 190500 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 9525 h 504825"/>
+            <a:gd name="connsiteX1" fmla="*/ 609600 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 504825"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 504825 h 504825"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 504825 h 504825"/>
+            <a:gd name="connsiteX4" fmla="*/ 190500 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 9525 h 504825"/>
+            <a:gd name="connsiteX0" fmla="*/ 190500 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 495300"/>
+            <a:gd name="connsiteX1" fmla="*/ 619125 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 7685 h 495300"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 495300 h 495300"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 495300 h 495300"/>
+            <a:gd name="connsiteX4" fmla="*/ 190500 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 495300"/>
+            <a:gd name="connsiteX0" fmla="*/ 196462 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 10242 h 487615"/>
+            <a:gd name="connsiteX1" fmla="*/ 619125 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 487615"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 487615 h 487615"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 487615 h 487615"/>
+            <a:gd name="connsiteX4" fmla="*/ 196462 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 10242 h 487615"/>
+            <a:gd name="connsiteX0" fmla="*/ 196462 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 477373"/>
+            <a:gd name="connsiteX1" fmla="*/ 613163 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 514 h 477373"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 477373 h 477373"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 477373 h 477373"/>
+            <a:gd name="connsiteX4" fmla="*/ 196462 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 477373"/>
+            <a:gd name="connsiteX0" fmla="*/ 196462 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 10242 h 487615"/>
+            <a:gd name="connsiteX1" fmla="*/ 577390 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 487615"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 487615 h 487615"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 487615 h 487615"/>
+            <a:gd name="connsiteX4" fmla="*/ 196462 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 10242 h 487615"/>
+            <a:gd name="connsiteX0" fmla="*/ 232235 w 790575"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 488129"/>
+            <a:gd name="connsiteX1" fmla="*/ 577390 w 790575"/>
+            <a:gd name="connsiteY1" fmla="*/ 514 h 488129"/>
+            <a:gd name="connsiteX2" fmla="*/ 790575 w 790575"/>
+            <a:gd name="connsiteY2" fmla="*/ 488129 h 488129"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 790575"/>
+            <a:gd name="connsiteY3" fmla="*/ 488129 h 488129"/>
+            <a:gd name="connsiteX4" fmla="*/ 232235 w 790575"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 488129"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="790575" h="488129">
+              <a:moveTo>
+                <a:pt x="232235" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="577390" y="514"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="790575" y="488129"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="488129"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="232235" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="上矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1008529" y="1736912"/>
+          <a:ext cx="3675530" cy="3115235"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96370</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="上矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4881282" y="1732430"/>
+          <a:ext cx="3675530" cy="3115235"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1748118" y="6185647"/>
+          <a:ext cx="5053853" cy="773206"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57419"/>
+            <a:gd name="adj2" fmla="val -218660"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>街にある路地から主人公がでてきくる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画像の右側に会談を透ける。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>店の絵を路地から階段までの間に２つ作る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="295275"/>
+          <a:ext cx="8934450" cy="4867275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734736" y="1333501"/>
+          <a:ext cx="1961030" cy="3070412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>ボス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="直角三角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="3324225"/>
+          <a:ext cx="5343525" cy="1838325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3914775"/>
+            <a:gd name="connsiteY0" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3914775"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1590675"/>
+            <a:gd name="connsiteX2" fmla="*/ 3914775 w 3914775"/>
+            <a:gd name="connsiteY2" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 3914775"/>
+            <a:gd name="connsiteY3" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX0" fmla="*/ 3714750 w 3714750"/>
+            <a:gd name="connsiteY0" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX1" fmla="*/ 3714750 w 3714750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1590675"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 3714750"/>
+            <a:gd name="connsiteY2" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX3" fmla="*/ 3714750 w 3714750"/>
+            <a:gd name="connsiteY3" fmla="*/ 1590675 h 1590675"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3714750" h="1590675">
+              <a:moveTo>
+                <a:pt x="3714750" y="1590675"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3714750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1590675"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3714750" y="1590675"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>55469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="直角三角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1102659" y="290793"/>
+          <a:ext cx="5325595" cy="1815913"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3914775"/>
+            <a:gd name="connsiteY0" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3914775"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1590675"/>
+            <a:gd name="connsiteX2" fmla="*/ 3914775 w 3914775"/>
+            <a:gd name="connsiteY2" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 3914775"/>
+            <a:gd name="connsiteY3" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX0" fmla="*/ 3714750 w 3714750"/>
+            <a:gd name="connsiteY0" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX1" fmla="*/ 3714750 w 3714750"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1590675"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 3714750"/>
+            <a:gd name="connsiteY2" fmla="*/ 1590675 h 1590675"/>
+            <a:gd name="connsiteX3" fmla="*/ 3714750 w 3714750"/>
+            <a:gd name="connsiteY3" fmla="*/ 1590675 h 1590675"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3714750" h="1590675">
+              <a:moveTo>
+                <a:pt x="3714750" y="1590675"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3714750" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1590675"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3714750" y="1590675"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392204</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1075763" y="381000"/>
+          <a:ext cx="2902325" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>ボスの名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5158,7 +6018,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5177,15 +6037,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5207,9 +6073,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -5221,6 +6092,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Text/仕様書＿河野.xlsx
+++ b/Text/仕様書＿河野.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6F992-4949-4423-8536-9BADEDD24291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アイテム一覧" sheetId="4" r:id="rId1"/>
     <sheet name="街画面" sheetId="6" r:id="rId2"/>
-    <sheet name="勝利画面" sheetId="7" r:id="rId3"/>
-    <sheet name="カットイン" sheetId="8" r:id="rId4"/>
-    <sheet name="ショップ画面" sheetId="3" r:id="rId5"/>
+    <sheet name="カットイン" sheetId="8" r:id="rId3"/>
+    <sheet name="ショップ画面" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +99,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02E7654-2C81-E5FE-AE66-D56A379779E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -149,7 +149,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594893F5-57C7-481B-AF38-7BBF64913607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -199,7 +199,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45BE02C-D723-4D7F-982A-EDA5FD3F5798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,7 +249,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F40FCF-45D3-E6A4-EFC1-8BAE7A92856B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -299,7 +299,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD7471-1F8C-2D0D-A630-DD9FFA960B70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -403,7 +403,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C7B6D5-302D-4DCE-B87D-E94EA06972A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,7 +523,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B47A41F-BDEF-91A0-FFB3-9CA242C2AD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +573,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896ACD32-AB75-2DFE-55D7-AE71C1A97B17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -623,7 +623,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336FD18D-1FD0-4E6A-873E-26FB0AF62C3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +734,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F165C2-C18B-4B46-9390-87D40AEADDE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514AE373-CC29-4F4B-9E2E-90F21FE16DFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +834,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6B7725-CB71-4A57-9DCD-80C5F20E03A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
         <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F1577F-2E77-DA91-7668-5D334E7A7CC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,7 +934,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77A0F23-520B-4C03-B0C2-8F05686F0674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1021,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC64E9D9-EE65-7B8C-8A27-0029F782CF5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93653513-6DF5-4918-9998-97CAF4B7DBCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1175,7 @@
         <xdr:cNvPr id="26" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668A92FC-AFDC-BDE0-2ABD-00ABDD0DD37E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1225,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2853CBB1-E96D-43E6-8BEF-EEF74D7CA3BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1336,7 @@
         <xdr:cNvPr id="29" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1386,7 @@
         <xdr:cNvPr id="30" name="テキスト ボックス 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF13609-F5C3-4246-AE5B-2B68D999C2AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="32" name="図 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA71DF6-C25D-14A6-2AE6-26CB4543E696}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1548,7 @@
         <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9838C4F0-7051-4357-B1DF-7BC59CB15ED4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="37" name="図 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C190BCD-1D06-6EFB-E251-2D9B54AAE91F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1648,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4105BCEF-EA27-4977-9452-420FFB45098A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="39" name="図 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63485EAF-EB27-422B-ABD1-1B2FDC0AB25B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1793,7 @@
         <xdr:cNvPr id="41" name="図 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E3E8E5-7BE7-3C24-EBED-155E82724E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1843,7 @@
         <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CE3A98-D983-48E0-99E1-666A2DE36239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1938,7 @@
         <xdr:cNvPr id="43" name="図 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2654F15-AF36-439C-9BDA-3A547568B879}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1988,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6401769D-39A4-43EC-8F95-1E4BB3E8EAB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
         <xdr:cNvPr id="46" name="図 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3A7394-D3F9-4618-2AFE-21BED2F49579}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2142,7 @@
         <xdr:cNvPr id="47" name="図 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90789B33-B8B8-407A-BADF-6032367FB4F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="49" name="図 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82F378C-FB73-4881-3108-044E40C5525A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2242,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC44FBA8-67F5-4130-9BDB-E78C4C939C71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2357,7 @@
         <xdr:cNvPr id="51" name="図 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D4B71C-AC53-4964-83BF-5462408F755F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2407,7 @@
         <xdr:cNvPr id="53" name="図 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771EA149-6BB1-468B-1DF2-744A6A3AE69B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2457,7 @@
         <xdr:cNvPr id="54" name="テキスト ボックス 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D3C412-B886-4344-8FB0-0BCD315B8ADE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2556,7 @@
         <xdr:cNvPr id="55" name="図 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC62A34F-6AD4-432E-936C-BDC2A1E9E990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2606,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8D86CF-3420-4200-867D-5804F242CA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="58" name="図 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB18B0D1-34B4-88C9-6311-B6414AA9AC28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="59" name="図 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24032883-A7E7-4156-B718-83669B139E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CDDCBC-33A5-4B78-BBB7-C36F26F50409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2921,7 @@
         <xdr:cNvPr id="45" name="図 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D4B71C-AC53-4964-83BF-5462408F755F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2968,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3015,7 +3021,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D3C412-B886-4344-8FB0-0BCD315B8ADE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3110,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3151,7 +3163,7 @@
         <xdr:cNvPr id="52" name="図 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3213,7 @@
         <xdr:cNvPr id="57" name="図 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3263,7 @@
         <xdr:cNvPr id="60" name="図 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3301,7 +3313,7 @@
         <xdr:cNvPr id="61" name="図 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3363,7 @@
         <xdr:cNvPr id="63" name="図 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DD75E2-7E0F-478E-B415-8E231D07EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3410,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3442,7 +3460,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3486,7 +3510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3530,7 +3560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3574,7 +3610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3623,7 +3665,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3677,7 +3725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3724,23 +3778,29 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="直角三角形 4"/>
+        <xdr:cNvPr id="5" name="直角三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8372475" y="4886325"/>
-          <a:ext cx="2676525" cy="523875"/>
+          <a:off x="8345581" y="4840940"/>
+          <a:ext cx="2667560" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -3791,7 +3851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3957,7 +4023,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
@@ -3969,16 +4035,25 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="上矢印 6"/>
+        <xdr:cNvPr id="7" name="上矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1008529" y="1736912"/>
-          <a:ext cx="3675530" cy="3115235"/>
+          <a:off x="784412" y="1736912"/>
+          <a:ext cx="3899647" cy="3115235"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 50360"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -4023,7 +4098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="上矢印 7"/>
+        <xdr:cNvPr id="8" name="上矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4072,18 +4153,24 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1748118" y="6185647"/>
-          <a:ext cx="5053853" cy="773206"/>
+          <a:ext cx="5053853" cy="941294"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4116,7 +4203,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>街にある路地から主人公がでてきくる。</a:t>
+            <a:t>街にある路地から主人公がでてくる。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4124,7 +4211,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画像の右側に会談を透ける。</a:t>
+            <a:t>画像の右側に階段をつける。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4134,6 +4221,126 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>店の絵を路地から階段までの間に２つ作る</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2902177E-FC7F-ADE2-513A-3B90B2FC5EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3182471" y="3910853"/>
+          <a:ext cx="347382" cy="930088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253254</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52F2474-BB18-44E9-BAC0-B53882ED95CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7088842" y="3895165"/>
+          <a:ext cx="347382" cy="930088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4159,7 +4366,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4213,7 +4426,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8"/>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4270,7 +4489,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="直角三角形 6"/>
+        <xdr:cNvPr id="7" name="直角三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4375,7 +4600,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="直角三角形 6"/>
+        <xdr:cNvPr id="8" name="直角三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4480,7 +4711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4522,6 +4759,80 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2A43EF-8452-D74D-B449-52ED872FA1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11004177" y="4975413"/>
+          <a:ext cx="2095500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -98272"/>
+            <a:gd name="adj2" fmla="val -96378"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ボスの名前を左上に表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ボスの画像は右側に表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4545,7 +4856,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4605,7 +4916,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,7 +4976,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,7 +5036,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +5096,7 @@
         <xdr:cNvPr id="10" name="四角形吹き出し 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4851,7 +5162,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4911,7 +5222,7 @@
         <xdr:cNvPr id="13" name="四角形吹き出し 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4977,7 +5288,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5027,7 +5338,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5077,7 +5388,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5127,7 +5438,7 @@
         <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5177,7 +5488,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,7 +5538,7 @@
         <xdr:cNvPr id="23" name="四角形吹き出し 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5293,7 +5604,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5353,7 +5664,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5413,7 +5724,7 @@
         <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5473,7 +5784,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5523,7 +5834,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5583,7 +5894,7 @@
         <xdr:cNvPr id="21" name="四角形吹き出し 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5646,7 +5957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5703,7 +6020,7 @@
         <xdr:cNvPr id="27" name="四角形吹き出し 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6016,14 +6333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6036,14 +6353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6056,30 +6373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6090,8 +6391,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
